--- a/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Julio.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Julio.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>328</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -343,11 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Desistimiento Querella.</t>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -358,11 +358,11 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
